--- a/com.verizon/src/test/resources/test_data.xlsx
+++ b/com.verizon/src/test/resources/test_data.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ferdous/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ferdous/Desktop/Selenium Bootcamp/SeleniumBootcamp/com.verizon/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4160A677-5099-C447-A4F4-3F1E31DA1478}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91ABB77C-749E-4148-8DCB-C0B3266CF634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="440" windowWidth="28040" windowHeight="16320" xr2:uid="{6DAE58B5-ECBB-8140-B42A-64C3BC36BA32}"/>
+    <workbookView xWindow="380" yWindow="440" windowWidth="28040" windowHeight="16140" activeTab="2" xr2:uid="{6DAE58B5-ECBB-8140-B42A-64C3BC36BA32}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -24,11 +26,79 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>SiteName</t>
+  </si>
+  <si>
+    <t>ferdousbusiness2021@gmail.com</t>
+  </si>
+  <si>
+    <t>Babul123@</t>
+  </si>
+  <si>
+    <t>Verizon Mobile</t>
+  </si>
+  <si>
+    <t>iphone</t>
+  </si>
+  <si>
+    <t>samsung</t>
+  </si>
+  <si>
+    <t>leddisplay</t>
+  </si>
+  <si>
+    <t>5gMobile</t>
+  </si>
+  <si>
+    <t>blackColored mobile</t>
+  </si>
+  <si>
+    <t>BlackBerry</t>
+  </si>
+  <si>
+    <t>ZipCode</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -43,7 +113,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,12 +121,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="12" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,12 +474,402 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF3D548E-5AC0-FE4C-A5FC-43AAB273A5C6}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="48.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.5" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="24">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="24">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="24">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="24">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="24">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="24">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="24">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="24">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="24">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="24">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="24">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" ht="24">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="24">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="24">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" ht="24">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" ht="24">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" ht="24">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="24">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82968818-030E-6641-B070-1B559B843936}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="26">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" ht="26">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" ht="26">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" ht="26">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" ht="26">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" ht="26">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" ht="26">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" ht="26">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" ht="26">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" ht="26">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{460BF350-A217-F749-8F9A-7965F1079D54}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="29">
+      <c r="A1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" ht="29">
+      <c r="A2" s="6">
+        <v>32907</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="29">
+      <c r="A3" s="6">
+        <v>33065</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="29">
+      <c r="A4" s="6">
+        <v>99505</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="29">
+      <c r="A5" s="6">
+        <v>85004</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="29">
+      <c r="A6" s="6">
+        <v>71603</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="29">
+      <c r="A7" s="6">
+        <v>90001</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="29">
+      <c r="A8" s="6">
+        <v>95456</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="29">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="29">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/com.verizon/src/test/resources/test_data.xlsx
+++ b/com.verizon/src/test/resources/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ferdous/Desktop/Selenium Bootcamp/SeleniumBootcamp/com.verizon/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91ABB77C-749E-4148-8DCB-C0B3266CF634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818A6746-9961-5746-A66E-81F08688D55A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="440" windowWidth="28040" windowHeight="16140" activeTab="2" xr2:uid="{6DAE58B5-ECBB-8140-B42A-64C3BC36BA32}"/>
+    <workbookView xWindow="2120" yWindow="440" windowWidth="19900" windowHeight="16140" xr2:uid="{6DAE58B5-ECBB-8140-B42A-64C3BC36BA32}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -140,12 +140,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -158,6 +155,12 @@
     </xf>
     <xf numFmtId="12" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -474,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF3D548E-5AC0-FE4C-A5FC-43AAB273A5C6}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -488,7 +491,7 @@
     <col min="4" max="4" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24">
+    <row r="1" spans="1:4" ht="24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,188 +504,34 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="24">
-      <c r="A2" s="1">
+    </row>
+    <row r="2" spans="1:4" ht="24">
+      <c r="A2" s="8">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="24">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="24">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="24">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="24">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="24">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" ht="24">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="24">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="24">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" ht="24">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" ht="24">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" ht="24">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="24">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" ht="24">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" ht="24">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" ht="24">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" ht="24">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="24">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -703,66 +552,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="26">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="26">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" ht="26">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" ht="26">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" ht="26">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" ht="26">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" ht="26">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" ht="26">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" ht="26">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -773,7 +622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{460BF350-A217-F749-8F9A-7965F1079D54}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -784,90 +633,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="29">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" ht="29">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>32907</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="29">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>33065</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="29">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>99505</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="29">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>85004</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="29">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>71603</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="29">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>90001</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="29">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>95456</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="29">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="29">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
